--- a/data/balance_sheet/3digits/total/243_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/243_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>243-Manufacture of other products of first processing of steel</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>243-Manufacture of other products of first processing of steel</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>1165199.89266</v>
@@ -1490,13 +940,13 @@
         <v>2265445.57929</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>2611239.66921</v>
+        <v>2612747.41521</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>3107697.68379</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>3578391.46392</v>
+        <v>3592212.38596</v>
       </c>
       <c r="J5" s="33" t="n">
         <v>4170826.82856</v>
@@ -1505,23 +955,28 @@
         <v>5742673.83495</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>7475674.71017</v>
+        <v>7498184.0113</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>8037229.900010001</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>8058842.87275</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>10167592.495</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>260584.87905</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>287191.64823</v>
+        <v>287191.6482299999</v>
       </c>
       <c r="E6" s="23" t="n">
         <v>398138.04118</v>
@@ -1530,32 +985,37 @@
         <v>423786.16208</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>544331.3723099999</v>
+        <v>544347.0639600001</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>592421.27542</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>714792.3115900001</v>
+        <v>722296.7670099998</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>743067.5915900001</v>
+        <v>743067.59159</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>857947.33946</v>
+        <v>857947.3394599999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>1021508.89833</v>
+        <v>1022639.74565</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>1124778.77048</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>1130852.58803</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>2223923.98</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4146.99643</v>
@@ -1570,32 +1030,37 @@
         <v>16149.84925</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>22449.68149</v>
+        <v>22463.97179</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>16426.068</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>50414.84539</v>
+        <v>50685.69119</v>
       </c>
       <c r="J7" s="21" t="n">
         <v>47373.92069</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>36388.22186999999</v>
+        <v>36388.22187</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>34144.97367</v>
+        <v>35012.81965999999</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>43740.18829</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>43835.39266999999</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>32478.619</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>112863.53639</v>
@@ -1610,13 +1075,13 @@
         <v>251866.1831</v>
       </c>
       <c r="G8" s="22" t="n">
-        <v>292547.02573</v>
+        <v>292548.42413</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>350266.20976</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>427909.31753</v>
+        <v>432794.69103</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>486664.95675</v>
@@ -1625,17 +1090,22 @@
         <v>558422.6575</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>697646.69963</v>
+        <v>697685.16536</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>683391.22398</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>685274.7516000001</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>1061153.546</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>152022.06919</v>
@@ -1650,13 +1120,13 @@
         <v>162183.82168</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>239149.81331</v>
+        <v>239149.81626</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>251439.44692</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>250336.13833</v>
+        <v>252815.43706</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>232537.85609</v>
@@ -1665,17 +1135,22 @@
         <v>285961.26966</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>347858.58693</v>
+        <v>348083.12253</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>431724.41513</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>435679.87007</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>1147135.222</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>8650.111339999999</v>
@@ -1696,13 +1171,13 @@
         <v>35468.90243</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>29563.20402</v>
+        <v>29713.62012</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>40452.18989</v>
       </c>
       <c r="K10" s="22" t="n">
-        <v>51406.1108</v>
+        <v>51406.11079999999</v>
       </c>
       <c r="L10" s="22" t="n">
         <v>101236.41442</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>108206.38782</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>135544.324</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>202.38838</v>
@@ -1736,7 +1216,7 @@
         <v>9758.453170000001</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>15695.21436</v>
+        <v>15714.56785</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>16943.04795</v>
@@ -1748,14 +1228,19 @@
         <v>43095.05252</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>74129.33089999999</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>74268.96151000001</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>118700.917</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>11161.30065</v>
@@ -1788,14 +1273,19 @@
         <v>14647.30125</v>
       </c>
       <c r="M12" s="23" t="n">
-        <v>9820.719709999999</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+        <v>9820.719710000001</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>45437.569</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>1963.67208</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>2063.936</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>1807.24375</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>3963.68555</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>13135.664</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>8.00329</v>
@@ -1890,7 +1390,7 @@
         <v>47.25036</v>
       </c>
       <c r="G15" s="22" t="n">
-        <v>417.3011799999999</v>
+        <v>417.30118</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>7.044770000000001</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>880.36115</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>26244.723</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>9346.053609999999</v>
@@ -1933,7 +1438,7 @@
         <v>270.6208</v>
       </c>
       <c r="H16" s="21" t="n">
-        <v>69.09660000000001</v>
+        <v>69.0966</v>
       </c>
       <c r="I16" s="22" t="n">
         <v>160.92462</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>3013.00093</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>3993.246</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,33 +1500,38 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>382463.37046</v>
+        <v>382463.3704600001</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>549719.3711100001</v>
+        <v>549719.3711099999</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>833227.4103200001</v>
+        <v>833227.41032</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>856327.4202899999</v>
+        <v>856327.42029</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>1035946.9078</v>
+        <v>1037409.4114</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>1351807.13361</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>1659500.52021</v>
+        <v>1662411.60786</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>1936157.8999</v>
@@ -2025,20 +1540,25 @@
         <v>2700379.1031</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>3048362.34972</v>
+        <v>3054379.67239</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>3466285.3438</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>3475892.956480001</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>3940927.464</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>335004.3288900001</v>
+        <v>335004.32889</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>475080.08258</v>
@@ -2047,16 +1567,16 @@
         <v>712162.99555</v>
       </c>
       <c r="F19" s="21" t="n">
-        <v>704449.23165</v>
+        <v>704449.2316500001</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>853410.86146</v>
+        <v>854850.4204200001</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>1098407.45445</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>1381285.03699</v>
+        <v>1384039.59016</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>1608458.67157</v>
@@ -2065,17 +1585,22 @@
         <v>2312630.22251</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>2700263.29662</v>
+        <v>2706137.82729</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>3134113.019770001</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>3143679.937909999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>3396522.289</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>40559.05399</v>
@@ -2096,7 +1621,7 @@
         <v>204073.86792</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>253529.28386</v>
+        <v>253544.44386</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>292430.43619</v>
@@ -2105,17 +1630,22 @@
         <v>338321.30884</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>301915.40833</v>
+        <v>302058.20033</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>253963.10497</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>253996.65497</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>370198.591</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>230.57284</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>3672.45446</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>13266.542</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>1193.66487</v>
@@ -2219,23 +1759,28 @@
         <v>2321.62091</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3188.225660000001</v>
+        <v>3188.22566</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>3701.89396</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>5100.045450000001</v>
+        <v>5100.04545</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>21165.75773</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>21172.73414</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>17730.189</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1646.43041</v>
@@ -2250,7 +1795,7 @@
         <v>10092.30045</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>10521.28515</v>
+        <v>10533.36424</v>
       </c>
       <c r="H24" s="21" t="n">
         <v>39317.71278</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>24267.36292</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>105383.169</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>23985.11819</v>
@@ -2287,16 +1837,16 @@
         <v>35350.95003</v>
       </c>
       <c r="F25" s="21" t="n">
-        <v>42573.03099</v>
+        <v>42573.03098999999</v>
       </c>
       <c r="G25" s="22" t="n">
-        <v>46493.84068</v>
+        <v>46517.96534</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>54075.45541000001</v>
+        <v>54075.45541</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>70941.98263</v>
+        <v>71270.61396</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>89395.40899000001</v>
@@ -2305,38 +1855,43 @@
         <v>108815.66449</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>185975.40665</v>
+        <v>188047.74935</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>211204.52912</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>210826.86473</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>260000.282</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>19694.65305</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>22075.24629000001</v>
+        <v>22075.24629</v>
       </c>
       <c r="E26" s="22" t="n">
-        <v>27477.23735</v>
+        <v>27477.23735000001</v>
       </c>
       <c r="F26" s="21" t="n">
         <v>33815.65899</v>
       </c>
       <c r="G26" s="22" t="n">
-        <v>37755.42027</v>
+        <v>37768.67938</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>45340.56445000001</v>
+        <v>45340.56445</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>60698.96706999999</v>
+        <v>60886.22392</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>74832.89352</v>
@@ -2345,17 +1900,22 @@
         <v>83505.15874000001</v>
       </c>
       <c r="L26" s="22" t="n">
-        <v>154908.33202</v>
+        <v>156980.67472</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>174755.97625</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>174378.14373</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>195640.514</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>19339.93498</v>
@@ -2370,7 +1930,7 @@
         <v>52587.44016</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>23667.12979</v>
+        <v>23681.70951</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>35094.14334</v>
@@ -2385,17 +1945,22 @@
         <v>110728.00147</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>117310.95898</v>
+        <v>117415.66596</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>163427.0474</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>163748.37273</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>237303.704</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2227.39403</v>
@@ -2407,16 +1972,16 @@
         <v>5712.4659</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>8687.32552</v>
+        <v>8687.325520000002</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>4548.38102</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>983.7849200000001</v>
+        <v>983.7849199999999</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>38912.48038</v>
+        <v>38912.48038000001</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>6063.02129</v>
@@ -2425,17 +1990,22 @@
         <v>13125.94133</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>38382.48609000001</v>
+        <v>38382.48609</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>46918.49344</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>46912.55447</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>72448.145</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>297.77995</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>10.65094</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>28.59324</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>2512.92461</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>2073.97</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>115.18654</v>
@@ -2527,7 +2107,7 @@
         <v>377.08997</v>
       </c>
       <c r="F31" s="21" t="n">
-        <v>293.82245</v>
+        <v>293.8224499999999</v>
       </c>
       <c r="G31" s="22" t="n">
         <v>407.94863</v>
@@ -2542,20 +2122,25 @@
         <v>791.36049</v>
       </c>
       <c r="K31" s="22" t="n">
-        <v>790.86685</v>
+        <v>790.8668499999999</v>
       </c>
       <c r="L31" s="22" t="n">
         <v>1379.64355</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>1476.21041</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>1487.85041</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>1725.631</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>16664.98022</v>
@@ -2570,10 +2155,10 @@
         <v>43534.21423000001</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>18231.29084</v>
+        <v>18245.87056</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>32709.12551000001</v>
+        <v>32709.12551</v>
       </c>
       <c r="I32" s="22" t="n">
         <v>33084.91657</v>
@@ -2582,20 +2167,25 @@
         <v>43509.98328</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>56030.18236</v>
+        <v>56030.18235999999</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>73345.42096999999</v>
+        <v>73450.12794999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>112508.768</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>112824.3923</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>161055.958</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>8.631549999999999</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>2.63055</v>
@@ -2710,33 +2310,38 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>430866.24953</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>514613.5962500001</v>
+        <v>514613.59625</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>759075.7743600002</v>
+        <v>759075.77436</v>
       </c>
       <c r="F36" s="33" t="n">
         <v>790188.7036799999</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>877491.911</v>
+        <v>877499.6283099999</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>982969.5104000001</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>995923.14636</v>
+        <v>999285.09637</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>1280582.55947</v>
@@ -2745,17 +2350,22 @@
         <v>1903568.20047</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>2966759.92303</v>
+        <v>2972456.90987</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>2909252.40346</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>2914963.77466</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>3333007.621</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>197047.91712</v>
@@ -2770,32 +2380,37 @@
         <v>384269.62767</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>478617.3289799999</v>
+        <v>478617.32898</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>527248.39624</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>481092.41354</v>
+        <v>484390.40754</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>638501.40367</v>
+        <v>638501.4036699999</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>967682.38326</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>1679288.93488</v>
+        <v>1679409.3341</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>1593701.75706</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>1596412.76396</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>1814503.864</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>14453.53514</v>
@@ -2828,14 +2443,19 @@
         <v>50060.55574</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>55596.29106999999</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>55736.54717000001</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>84782.946</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>76802.53985</v>
@@ -2865,17 +2485,22 @@
         <v>395429.67826</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>693726.71319</v>
+        <v>693726.7131899999</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>743293.40451</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>745084.4120099999</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>649497.151</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>25685.48245</v>
@@ -2887,16 +2512,16 @@
         <v>41001.37547</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>38628.11283999999</v>
+        <v>38628.11284</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>44490.43159</v>
+        <v>44498.14890000001</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>55299.64991000001</v>
+        <v>55299.64990999999</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>67167.74548</v>
+        <v>67167.74547999998</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>69177.38984</v>
@@ -2905,26 +2530,31 @@
         <v>76909.85785</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>126646.6699</v>
+        <v>126657.04659</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>133588.45428</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>133949.00156</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>188867.549</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>57899.54654</v>
       </c>
       <c r="D41" s="22" t="n">
-        <v>68393.56499999999</v>
+        <v>68393.565</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>91124.65445999999</v>
+        <v>91124.65446000001</v>
       </c>
       <c r="F41" s="21" t="n">
         <v>143133.46225</v>
@@ -2948,14 +2578,19 @@
         <v>205112.57762</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>148023.96225</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>148100.89176</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>183843.448</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>235.55479</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>59212.78322</v>
@@ -3004,10 +2644,10 @@
         <v>86982.62875</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>86291.12869000001</v>
+        <v>86291.12869</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>83774.0186</v>
+        <v>83774.01860000001</v>
       </c>
       <c r="G43" s="22" t="n">
         <v>95796.88498999999</v>
@@ -3016,7 +2656,7 @@
         <v>118133.28369</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>134058.55409</v>
+        <v>134122.5101</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>182568.79984</v>
@@ -3025,17 +2665,22 @@
         <v>277402.71948</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>213595.70938</v>
+        <v>219161.92031</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>235048.53429</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>235680.1582</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>411512.663</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>21189.68556</v>
@@ -3062,20 +2707,25 @@
         <v>53231.61292</v>
       </c>
       <c r="K44" s="23" t="n">
-        <v>45983.57419000001</v>
+        <v>45983.57419</v>
       </c>
       <c r="L44" s="23" t="n">
-        <v>86967.17889999998</v>
+        <v>96132.02138000001</v>
       </c>
       <c r="M44" s="23" t="n">
         <v>133076.03925</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>96919.29700000001</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>21189.68556</v>
@@ -3105,17 +2755,22 @@
         <v>45983.57419000001</v>
       </c>
       <c r="L45" s="22" t="n">
-        <v>86967.17889999998</v>
+        <v>96132.02137999999</v>
       </c>
       <c r="M45" s="22" t="n">
         <v>133076.03925</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>96919.29700000001</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>6714.70542</v>
@@ -3210,13 +2875,13 @@
         <v>12158.79794</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>13653.47555</v>
+        <v>13660.72927</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>14325.2778</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>16873.99098</v>
+        <v>16917.41994</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>28886.15489</v>
@@ -3225,17 +2890,22 @@
         <v>27677.8871</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>34618.37094</v>
+        <v>34632.23338000001</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>41655.1812</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>41683.9374</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>71481.882</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1675.36019</v>
@@ -3250,13 +2920,13 @@
         <v>2832.60651</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>4115.2389</v>
+        <v>4122.492620000001</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>2866.09536</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>4177.449070000001</v>
+        <v>4220.878029999999</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>12437.58416</v>
@@ -3265,17 +2935,22 @@
         <v>13309.62271</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>11437.03344</v>
+        <v>11450.89588</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>14546.47112</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>14575.22732</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>27732.231</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>5039.34523</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>27108.71008</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>43749.651</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>32879.76701</v>
@@ -3324,7 +3004,7 @@
         <v>37674.84799</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>51005.60866</v>
+        <v>51005.60866000001</v>
       </c>
       <c r="F51" s="45" t="n">
         <v>62745.30815</v>
@@ -3336,7 +3016,7 @@
         <v>79219.85695</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>80956.70371</v>
+        <v>80956.70370999999</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>64854.67298</v>
@@ -3345,17 +3025,22 @@
         <v>89614.14636</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>185499.72902</v>
+        <v>185880.46142</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>188934.39471</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>188804.48449</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>218590.978</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>25167.00971</v>
@@ -3373,7 +3058,7 @@
         <v>49193.63525</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>53226.63027999999</v>
+        <v>53226.63028</v>
       </c>
       <c r="I52" s="22" t="n">
         <v>56375.56488000001</v>
@@ -3385,17 +3070,22 @@
         <v>61945.94153</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>127445.25647</v>
+        <v>127824.35148</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>109478.6847</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>110230.17565</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>138981.564</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>230.19166</v>
@@ -3430,21 +3120,26 @@
       <c r="M53" s="22" t="n">
         <v>84.00677</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>12.259</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
-        <v>4342.574809999999</v>
+        <v>4342.57481</v>
       </c>
       <c r="D54" s="22" t="n">
-        <v>6374.65349</v>
+        <v>6374.653490000001</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>9582.383880000001</v>
+        <v>9582.383879999999</v>
       </c>
       <c r="F54" s="21" t="n">
         <v>16112.4941</v>
@@ -3468,14 +3163,19 @@
         <v>30971.06129</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>55102.58528999999</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>55183.92216999999</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>52129.993</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>1164.1023</v>
@@ -3484,7 +3184,7 @@
         <v>3107.4636</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>6333.31788</v>
+        <v>6333.317879999999</v>
       </c>
       <c r="F55" s="21" t="n">
         <v>4596.84117</v>
@@ -3499,23 +3199,28 @@
         <v>4090.97358</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>8375.704879999999</v>
+        <v>8375.704880000001</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>9345.053009999998</v>
+        <v>9345.05301</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>18927.14486</v>
+        <v>18928.78225</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>16310.18104</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>15336.87658</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>17015.909</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>329.63753</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>2869.12314</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>3790.012</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>1248.66623</v>
@@ -3588,14 +3298,19 @@
         <v>3121.43313</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>4501.11413</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>4511.68054</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>6358.667</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>49.29413</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>333.9524699999999</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>270.366</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>348.29064</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>254.74717</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>32.208</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>502271.16837</v>
@@ -3729,13 +3459,13 @@
         <v>685027.46401</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>782249.6511899999</v>
+        <v>784419.7649500001</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>871100.91727</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>1088545.41989</v>
+        <v>1100240.5711</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>1191058.10151</v>
@@ -3744,17 +3474,22 @@
         <v>1338582.09401</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1767717.54103</v>
+        <v>1776168.1442</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>2115837.98504</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>2132137.78097</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>2556801.765</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>3027.55239</v>
@@ -3766,16 +3501,16 @@
         <v>1249.28408</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>918.5963999999999</v>
+        <v>918.5964</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>1741.6683</v>
+        <v>1741.7433</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>2695.30708</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>5387.843199999999</v>
+        <v>5394.82473</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>13444.22357</v>
@@ -3787,14 +3522,19 @@
         <v>3137.34928</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>3238.34582</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>3239.49298</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>3950.304</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>2434.69193</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>230.6792</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>200</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>680.38289</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>871.792</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>392.86046</v>
@@ -3969,13 +3729,13 @@
         <v>718.5964</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>1741.6683</v>
+        <v>1741.7433</v>
       </c>
       <c r="H67" s="21" t="n">
         <v>2694.04448</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>2757.99416</v>
+        <v>2764.97569</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>2161.77708</v>
@@ -3987,14 +3747,19 @@
         <v>2210.66763</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2327.28373</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2328.43089</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>3078.512</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>248.35478</v>
@@ -4067,14 +3837,19 @@
         <v>15819.94208</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>16545.65228</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>16554.43072</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>10668.643</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>158.40934</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>12241.54488</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>1829.562</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0.00975</v>
@@ -4147,14 +3927,19 @@
         <v>0</v>
       </c>
       <c r="M71" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+        <v>6</v>
+      </c>
+      <c r="N71" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>323.537</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>336.037</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>3.4875</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>3.488</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>89.93569000000001</v>
@@ -4267,14 +4062,19 @@
         <v>2782.01189</v>
       </c>
       <c r="M74" s="22" t="n">
-        <v>3977.0829</v>
-      </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+        <v>3979.86134</v>
+      </c>
+      <c r="N74" s="22" t="n">
+        <v>8493.556</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>31245.10862</v>
@@ -4387,14 +4197,19 @@
         <v>208159.05169</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>221178.09423</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>221285.97915</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>421457.75</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>142.02619</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>142.026</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>20800.35841</v>
@@ -4495,7 +4320,7 @@
         <v>32348.47693</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>33931.07383</v>
+        <v>33931.07383000001</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>40748.70157</v>
@@ -4507,14 +4332,19 @@
         <v>8550.713900000001</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>21763.29136</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>21764.54136</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>134673.713</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>403.77895</v>
@@ -4547,14 +4377,19 @@
         <v>102.15</v>
       </c>
       <c r="M81" s="22" t="n">
-        <v>200.3</v>
-      </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+        <v>201.55</v>
+      </c>
+      <c r="N81" s="22" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>10848.52916</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>199473.07668</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>286623.526</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4747,14 +4602,19 @@
         <v>107.88492</v>
       </c>
       <c r="M86" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+        <v>107.88492</v>
+      </c>
+      <c r="N86" s="22" t="n">
+        <v>107.885</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,15 +4649,20 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>435636.6374</v>
+        <v>435636.6373999999</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>475880.94327</v>
@@ -4809,32 +4674,37 @@
         <v>574462.99229</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>651581.4066100001</v>
+        <v>653715.9683699999</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>695476.08524</v>
+        <v>695476.0852399999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>773139.2143</v>
+        <v>784810.85786</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>818541.4356699999</v>
+        <v>818541.43567</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>952524.6789299998</v>
+        <v>952524.6789300002</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>1350263.08961</v>
+        <v>1358665.27825</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>1614622.63986</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>1627821.15098</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1726661.121</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>54042.266</v>
@@ -4849,13 +4719,13 @@
         <v>66369.16939</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>87382.10965000001</v>
+        <v>87758.7944</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>97776.31271</v>
+        <v>97776.31271000001</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>92656.57908</v>
+        <v>96725.91837</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>109496.90276</v>
@@ -4864,17 +4734,22 @@
         <v>124703.00151</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>162502.64292</v>
+        <v>167404.24614</v>
       </c>
       <c r="M89" s="22" t="n">
         <v>165349.29499</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>127611.055</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>7581.58628</v>
@@ -4883,7 +4758,7 @@
         <v>7957.038410000001</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>8307.374619999999</v>
+        <v>8307.374620000001</v>
       </c>
       <c r="F90" s="21" t="n">
         <v>8876.701449999999</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>16693.66757</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>20143.799</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>252555.55467</v>
@@ -4929,53 +4809,58 @@
         <v>310515.80056</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>346374.7687200001</v>
+        <v>347689.06417</v>
       </c>
       <c r="H91" s="21" t="n">
         <v>361011.71856</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>414359.58699</v>
+        <v>417351.6848</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>442478.3583500001</v>
+        <v>442478.3583499999</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>510944.94469</v>
+        <v>510944.9446899999</v>
       </c>
       <c r="L91" s="22" t="n">
         <v>726252.7851399999</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>833213.5778000001</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>834202.6259399999</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>799590.29</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
-        <v>643570.0519399999</v>
+        <v>643570.05194</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>695801.41226</v>
+        <v>695801.4122599999</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>768686.92901</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>817439.65532</v>
+        <v>817439.6553199999</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>862452.3274399999</v>
+        <v>862699.73045</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>913701.6489000001</v>
+        <v>913701.6488999999</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>1002547.01212</v>
+        <v>1004330.35598</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>1061119.06661</v>
@@ -4984,17 +4869,22 @@
         <v>1154206.75106</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>1366296.83386</v>
+        <v>1368598.17119</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>1576687.60427</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>1587678.63172</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>1843481.2</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>21797.81452</v>
@@ -5006,16 +4896,16 @@
         <v>27701.86939</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>28837.74848000001</v>
+        <v>28837.74848</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>32078.60281</v>
+        <v>32419.51494</v>
       </c>
       <c r="H93" s="21" t="n">
         <v>39305.98985</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>45522.73936</v>
+        <v>47119.38883</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>52220.5397</v>
@@ -5024,57 +4914,67 @@
         <v>57287.80888</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>77825.79347999999</v>
+        <v>77831.16548</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>85893.08953999999</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>87051.97237999999</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>133007.432</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>41348.86806</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>44485.61212999999</v>
+        <v>44485.61213</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>58343.78473000001</v>
+        <v>58343.78473</v>
       </c>
       <c r="F94" s="21" t="n">
         <v>71759.14336</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>79643.40093</v>
+        <v>79724.81111</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>51415.74709</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>57389.7636</v>
+        <v>58142.43545</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>65322.37757</v>
       </c>
       <c r="K94" s="22" t="n">
-        <v>70759.96111999999</v>
+        <v>70759.96112000001</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>94831.57465000001</v>
+        <v>94895.83770999999</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>109450.52941</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>110152.93789</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>129185.471</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>484.697</v>
@@ -5089,7 +4989,7 @@
         <v>498.72875</v>
       </c>
       <c r="G95" s="22" t="n">
-        <v>403.45122</v>
+        <v>403.4612</v>
       </c>
       <c r="H95" s="21" t="n">
         <v>680.9158199999999</v>
@@ -5104,38 +5004,43 @@
         <v>4130.85203</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>4903.75526</v>
+        <v>4903.755260000001</v>
       </c>
       <c r="M95" s="22" t="n">
         <v>13930.81239</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>19551.975</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>611967.64221</v>
+        <v>611967.6422100001</v>
       </c>
       <c r="D96" s="22" t="n">
         <v>660417.395</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>715447.2506400001</v>
+        <v>715447.25064</v>
       </c>
       <c r="F96" s="21" t="n">
         <v>769216.46627</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>811212.9403</v>
+        <v>811692.02813</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>850325.49985</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>913280.53799</v>
+        <v>916866.14506</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>985354.4202800001</v>
@@ -5144,17 +5049,22 @@
         <v>1064841.76069</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>1226248.35369</v>
+        <v>1226282.08869</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>1284459.52103</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>1287290.16352</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>1505253.012</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>25765.41113</v>
@@ -5166,16 +5076,16 @@
         <v>44567.69237</v>
       </c>
       <c r="F97" s="21" t="n">
-        <v>37297.77237000001</v>
+        <v>37297.77237</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>40660.64495999999</v>
+        <v>40913.57905</v>
       </c>
       <c r="H97" s="21" t="n">
         <v>67076.334</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>58321.87845</v>
+        <v>62385.0268</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>52665.44804</v>
@@ -5184,17 +5094,22 @@
         <v>71203.16026999999</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>124155.9273</v>
+        <v>125319.27533</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>87265.9513</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>89453.738</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>132405.535</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>458.03001</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>10597.63362</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>26937.376</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>28836.58952</v>
@@ -5249,32 +5169,37 @@
         <v>30030.18469</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>37900.84901000001</v>
+        <v>37901.66338999999</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>40806.16854999999</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>58448.64424</v>
+        <v>58465.17036</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>86838.77044999998</v>
+        <v>86838.77045</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>94098.82923</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>124363.72118</v>
+        <v>124364.07286</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>119662.20525</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>122015.72688</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>214226.881</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>34549.39705</v>
@@ -5286,10 +5211,10 @@
         <v>44400.89692</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>36374.52284</v>
+        <v>36374.52284000001</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>45591.43705000001</v>
+        <v>45592.25143</v>
       </c>
       <c r="H100" s="21" t="n">
         <v>49290.17653</v>
@@ -5298,7 +5223,7 @@
         <v>66792.11354000001</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>96039.83097999998</v>
+        <v>96039.83098</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>108837.85379</v>
@@ -5307,14 +5232,19 @@
         <v>116085.3009</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>119119.19795</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>121294.18698</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>237567.403</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,15 +5279,20 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>590.28522</v>
+        <v>590.2852200000001</v>
       </c>
       <c r="D102" s="22" t="n">
         <v>595.3420599999999</v>
@@ -5378,23 +5313,28 @@
         <v>660.1868000000001</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>683.4489400000001</v>
+        <v>683.44894</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>733.57467</v>
+        <v>733.5746700000001</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>676.3129799999999</v>
+        <v>678.0713000000001</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>483.46918</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>483.4691800000001</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>262.972</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>59.41471</v>
@@ -5427,14 +5367,19 @@
         <v>3994.12363</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>7917.433599999999</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>7917.46206</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>12716.762</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>10207.50259</v>
@@ -5455,7 +5400,7 @@
         <v>17644.83422</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>21608.30629</v>
+        <v>21879.29021</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>24817.6353</v>
@@ -5467,14 +5412,19 @@
         <v>47355.64989</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>52810.61922000001</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>53142.15605</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>53183.101</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>7741.91082</v>
@@ -5507,14 +5457,19 @@
         <v>33487.42847</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>30067.12213</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>30103.90693</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>28660.444</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>24312.97039</v>
@@ -5529,32 +5484,37 @@
         <v>29586.92522</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>35836.69751000001</v>
+        <v>35836.69751</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>39352.08924</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>45271.48598</v>
+        <v>45525.94378</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>50463.65128000001</v>
+        <v>50463.65128</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>60962.22793000001</v>
+        <v>60962.22792999999</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>77370.27118000001</v>
+        <v>77371.67782</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>90787.96345000001</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>90977.78094</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>118224.569</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>1.04952</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>52.32662000000001</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>60.768</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>148.23665</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>117.61952</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>116.57</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0.76858</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>913.40208</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>18.83613</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>18.836</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>887.2456799999999</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>18.83613</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>18.836</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>121.31167</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>117.61952</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>116.57</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>3366.900349999999</v>
+        <v>3366.90035</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>3425.315859999999</v>
+        <v>3425.31586</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>10569.93732</v>
@@ -5849,7 +5844,7 @@
         <v>5356.45088</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>19933.66252</v>
+        <v>19968.32514</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>22583.16022</v>
@@ -5864,23 +5859,28 @@
         <v>46241.17092</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>46110.77011</v>
+        <v>46158.83295999999</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>117778.96526</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>118408.91792</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>171412.199</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>3366.900349999999</v>
+        <v>3366.90035</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>3425.315859999999</v>
+        <v>3425.31586</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>10191.70021</v>
@@ -5889,7 +5889,7 @@
         <v>5274.10163</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>19933.66252</v>
+        <v>19968.32514</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>22583.16022</v>
@@ -5901,20 +5901,25 @@
         <v>30018.93354</v>
       </c>
       <c r="K115" s="22" t="n">
-        <v>39725.57684</v>
+        <v>39725.57683999999</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>45996.74214</v>
+        <v>46044.80499</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>117778.65263</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>118408.60529</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>171128.76</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0.31263</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>283.439</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>-238.21134</v>
@@ -5981,7 +5991,7 @@
         <v>3685.89877</v>
       </c>
       <c r="K117" s="23" t="n">
-        <v>3455.5881</v>
+        <v>3455.588099999999</v>
       </c>
       <c r="L117" s="23" t="n">
         <v>19745.99756</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>22694.46282</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>8308.297</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>34.65854</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6169,7 +6204,7 @@
         <v>554.258</v>
       </c>
       <c r="G122" s="22" t="n">
-        <v>405.3116</v>
+        <v>405.3116000000001</v>
       </c>
       <c r="H122" s="21" t="n">
         <v>865.5295600000001</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>6342.07177</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>1804.281</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>9886.41113</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>272.86988</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>6465.97992</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>6503.902</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1667471.06103</v>
@@ -6369,29 +6429,32 @@
         <v>2950473.0433</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>3393489.320400001</v>
+        <v>3397167.18016</v>
       </c>
       <c r="H127" s="33" t="n">
         <v>3978798.60106</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>4666936.88381</v>
+        <v>4692452.95706</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>5361884.930070001</v>
+        <v>5361884.93007</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>7081255.92896</v>
+        <v>7081255.928959999</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>9243392.251200002</v>
+        <v>9274352.1555</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>10153067.88505</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>10190980.65372</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>12724394.26</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>243-Manufacture of other products of first processing of steel</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>728619.7618300001</v>
+        <v>728619.76183</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>966874.2517</v>
@@ -6501,13 +6578,13 @@
         <v>1609060.88007</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>1782583.9408</v>
+        <v>1782835.024</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>2219301.30225</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>2666120.75182</v>
+        <v>2674905.48899</v>
       </c>
       <c r="J132" s="33" t="n">
         <v>3044244.20484</v>
@@ -6516,17 +6593,22 @@
         <v>4023045.25291</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>5119546.09612</v>
+        <v>5164679.246359999</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>5397456.3382</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>5416628.42955</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>6326978.598</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>187185.18408</v>
@@ -6541,32 +6623,37 @@
         <v>514617.98034</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>519010.34004</v>
+        <v>519042.64004</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>654430.57198</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>733995.5403299999</v>
+        <v>741853.5369900001</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>820295.32968</v>
+        <v>820295.3296800001</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>891808.39414</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>1421999.42886</v>
+        <v>1436436.34222</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>1566828.18425</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>1569158.12443</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>2274308.468</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>140056.4591</v>
@@ -6581,32 +6668,37 @@
         <v>489427.29677</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>508010.84616</v>
+        <v>508043.14616</v>
       </c>
       <c r="H134" s="21" t="n">
         <v>629715.3915199999</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>708350.9892599999</v>
+        <v>716208.9859200001</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>787976.8940999999</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>851324.3499299999</v>
+        <v>851324.34993</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>1370109.99425</v>
+        <v>1384540.89297</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>1479378.50253</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>1481708.44271</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>2104718.126</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>2172.76884</v>
@@ -6627,7 +6719,7 @@
         <v>3975.55599</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>8207.681059999999</v>
+        <v>8207.681060000001</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>9444.11277</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>13560.35758</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>30847.327</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>808.61775</v>
@@ -6673,7 +6770,7 @@
         <v>1551.96917</v>
       </c>
       <c r="K136" s="22" t="n">
-        <v>783.3258799999999</v>
+        <v>783.32588</v>
       </c>
       <c r="L136" s="22" t="n">
         <v>1956.39401</v>
@@ -6681,15 +6778,20 @@
       <c r="M136" s="22" t="n">
         <v>1853.43298</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>3053.459</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
-        <v>35366.76708</v>
+        <v>35366.76708000001</v>
       </c>
       <c r="D137" s="22" t="n">
         <v>35536.09531</v>
@@ -6710,7 +6812,7 @@
         <v>16438.22254</v>
       </c>
       <c r="J137" s="21" t="n">
-        <v>22646.10464000001</v>
+        <v>22646.10464</v>
       </c>
       <c r="K137" s="22" t="n">
         <v>33984.8184</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>64387.92962</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>95586.13099999999</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>10397.80681</v>
@@ -6916,17 +7043,22 @@
         <v>2138.09971</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>4618.39568</v>
+        <v>4624.41032</v>
       </c>
       <c r="M142" s="22" t="n">
         <v>11354.8275</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>46210.343</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>407190.75361</v>
@@ -6935,38 +7067,43 @@
         <v>508837.7766</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>722328.9368700001</v>
+        <v>722328.93687</v>
       </c>
       <c r="F143" s="45" t="n">
         <v>810200.5061500001</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>931192.9314300001</v>
+        <v>931377.8199999999</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>1205520.56959</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>1541456.96185</v>
+        <v>1541701.64818</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>1726105.58225</v>
       </c>
       <c r="K143" s="46" t="n">
-        <v>2399511.908369999</v>
+        <v>2399511.90837</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>2854652.62439</v>
+        <v>2862071.41685</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>2722872.74522</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>2733650.79941</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>2742554.506</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>361960.3792199999</v>
@@ -6975,19 +7112,19 @@
         <v>448059.48885</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>649243.99843</v>
+        <v>649243.9984299999</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>686999.08618</v>
+        <v>686999.0861800001</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>788614.9296000001</v>
+        <v>788786.61655</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>1073576.23356</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>1312590.70798</v>
+        <v>1312835.39431</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>1553760.98595</v>
@@ -6996,17 +7133,22 @@
         <v>2194404.56678</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>2651922.17175</v>
+        <v>2659340.72721</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>2574154.19381</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>2584201.17979</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>2550677.786</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>39387.75811</v>
@@ -7015,7 +7157,7 @@
         <v>43371.47946</v>
       </c>
       <c r="E145" s="25" t="n">
-        <v>45499.92443000001</v>
+        <v>45499.92443</v>
       </c>
       <c r="F145" s="24" t="n">
         <v>99701.11667</v>
@@ -7039,14 +7181,19 @@
         <v>153497.47843</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>117717.36867</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>118376.29894</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>137411.78</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,18 +7228,23 @@
       <c r="M146" s="25" t="n">
         <v>55.08846</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>35.446</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>244.30754</v>
       </c>
       <c r="D147" s="25" t="n">
-        <v>67.44338</v>
+        <v>67.44337999999999</v>
       </c>
       <c r="E147" s="25" t="n">
         <v>99.85004999999998</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>331.02499</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>6305.09</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>5598.30874</v>
@@ -7141,7 +7298,7 @@
         <v>23178.64275</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>15010.15753</v>
+        <v>15023.35915</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>22895.35623</v>
@@ -7150,29 +7307,34 @@
         <v>26768.41572</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>35168.68769999999</v>
+        <v>35168.6877</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>32365.60961</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>48727.20927</v>
+        <v>48727.44627</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>30725.24621</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>30797.38415</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>48195.296</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
-        <v>54901.10543</v>
+        <v>54901.10542999999</v>
       </c>
       <c r="D149" s="23" t="n">
-        <v>54593.45209999999</v>
+        <v>54593.4521</v>
       </c>
       <c r="E149" s="23" t="n">
         <v>72226.75931000001</v>
@@ -7181,13 +7343,13 @@
         <v>107676.79321</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>162025.11757</v>
+        <v>162047.31944</v>
       </c>
       <c r="H149" s="33" t="n">
         <v>168441.31368</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>184172.17962</v>
+        <v>184275.69014</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>218355.10514</v>
@@ -7196,17 +7358,22 @@
         <v>327242.32398</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>389567.0151</v>
+        <v>412817.82238</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>537097.3412799999</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>540172.1553100001</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>389374.789</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>50518.76291</v>
@@ -7215,16 +7382,16 @@
         <v>45676.88273</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>59663.85729000001</v>
+        <v>59663.85729</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>60363.06778</v>
+        <v>60363.06777999999</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>106849.74522</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>55289.80614</v>
+        <v>55289.80613999999</v>
       </c>
       <c r="I150" s="22" t="n">
         <v>63386.48129</v>
@@ -7236,17 +7403,22 @@
         <v>85257.79742999999</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>167605.20833</v>
+        <v>190856.01561</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>358970.96787</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>361508.32588</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>197291.642</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>826.809</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>279.25842</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>14577.3</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>2648.57303</v>
@@ -7335,19 +7517,19 @@
         <v>3138.9518</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>3997.76915</v>
+        <v>3997.769150000001</v>
       </c>
       <c r="F153" s="21" t="n">
         <v>5110.23975</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>5996.58352</v>
+        <v>6017.938990000001</v>
       </c>
       <c r="H153" s="21" t="n">
         <v>7025.09834</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>8382.27421</v>
+        <v>8485.784730000001</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>11001.27631</v>
@@ -7359,14 +7541,19 @@
         <v>19671.47928</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>23844.27338</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>24361.3774</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>25268.038</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1454.51107</v>
@@ -7381,7 +7568,7 @@
         <v>42201.63886</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>49178.78883</v>
+        <v>49179.63523000001</v>
       </c>
       <c r="H154" s="21" t="n">
         <v>106125.3892</v>
@@ -7399,14 +7586,19 @@
         <v>202101.81426</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>154282.10003</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>154302.45203</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>151411</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,24 +7633,29 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>39524.97654</v>
       </c>
       <c r="D156" s="23" t="n">
-        <v>54383.43378999999</v>
+        <v>54383.43379000001</v>
       </c>
       <c r="E156" s="23" t="n">
         <v>80936.38121000001</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>71452.92391999999</v>
+        <v>71452.92392</v>
       </c>
       <c r="G156" s="23" t="n">
         <v>78846.55909000001</v>
@@ -7467,7 +7664,7 @@
         <v>91502.26078</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>108099.70483</v>
+        <v>108421.57134</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>138365.83922</v>
@@ -7479,20 +7676,25 @@
         <v>213456.71494</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>230496.60285</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>231873.32379</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>468568.376</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>39511.97654</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>53855.30964999999</v>
+        <v>53855.30965</v>
       </c>
       <c r="E157" s="22" t="n">
         <v>80593.85515999999</v>
@@ -7507,7 +7709,7 @@
         <v>89190.59572</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>105199.11895</v>
+        <v>105520.98546</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>132809.57243</v>
@@ -7519,14 +7721,19 @@
         <v>212798.68324</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>230278.61021</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>230970.93115</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>466221.983</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>13</v>
@@ -7559,14 +7766,19 @@
         <v>658.0317</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>217.99264</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>902.39264</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>2346.393</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>13046.28287</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>93165.77144</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>70975.084</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>13046.28287</v>
@@ -7624,7 +7841,7 @@
         <v>31393.26582</v>
       </c>
       <c r="H160" s="21" t="n">
-        <v>35996.83361</v>
+        <v>35996.83361000001</v>
       </c>
       <c r="I160" s="22" t="n">
         <v>19306.75316</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>93165.77144</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>70975.084</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>13344.38982</v>
@@ -7701,13 +7928,13 @@
         <v>19190.0939</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>32003.60697</v>
+        <v>32015.29973</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>38156.43403</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>47958.38155000001</v>
+        <v>48198.51287</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>66081.62651</v>
@@ -7716,20 +7943,25 @@
         <v>85277.66012999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>111461.20397</v>
+        <v>111481.48638</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>132943.29012</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>133520.10334</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>210575.845</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>8566.61578</v>
+        <v>8566.615780000002</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>11121.58157</v>
@@ -7741,13 +7973,13 @@
         <v>12192.29183</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>23629.8502</v>
+        <v>23638.89798</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>23087.86991</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>29102.04694</v>
+        <v>29294.81448</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>32969.9352</v>
@@ -7756,17 +7988,22 @@
         <v>46584.95808</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>68231.36317</v>
+        <v>68250.98599000002</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>83173.53691</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>83245.11444</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>138851.714</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2987.35535</v>
@@ -7775,19 +8012,19 @@
         <v>3420.00044</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>5713.74377</v>
+        <v>5713.743769999999</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>4858.883880000001</v>
+        <v>4858.88388</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>7105.999900000001</v>
+        <v>7108.64488</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>9096.129279999999</v>
+        <v>9096.129280000001</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>12315.92881</v>
+        <v>12363.29259</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>14891.77599</v>
@@ -7796,17 +8033,22 @@
         <v>23071.66549</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>25561.18739</v>
+        <v>25561.84698</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>31134.08294</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>31460.01847</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>30461.016</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1391.15295</v>
@@ -7827,7 +8069,7 @@
         <v>5562.58134</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>6478.919309999999</v>
+        <v>6478.91931</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>18131.80659</v>
@@ -7839,14 +8081,19 @@
         <v>17416.9868</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>18260.19958</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>18438.03874</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>40904.661</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>399.26574</v>
@@ -7879,14 +8126,19 @@
         <v>251.66661</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>375.47069</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>376.93169</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>358.454</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>9621.566440000001</v>
@@ -7907,7 +8159,7 @@
         <v>14360.01488</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>22404.83083</v>
+        <v>22409.29278</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>31203.39989</v>
@@ -7916,20 +8168,25 @@
         <v>42315.56895</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>54533.05203000001</v>
+        <v>54537.60676</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>73194.93862999999</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>74230.68742</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>112486.329</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
-        <v>9232.22271</v>
+        <v>9232.222709999998</v>
       </c>
       <c r="D168" s="22" t="n">
         <v>15251.49986</v>
@@ -7950,23 +8207,28 @@
         <v>38644.29303</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>51033.99226000001</v>
+        <v>51033.99226</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>95845.72173999998</v>
+        <v>95845.72173999999</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>150100.52173</v>
+        <v>150105.07646</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>113384.7459</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>115637.88885</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>213806.286</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>6702.20159</v>
@@ -7987,7 +8249,7 @@
         <v>28864.18878</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>27052.46611</v>
+        <v>27048.00416</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>36286.40145</v>
@@ -7999,14 +8261,19 @@
         <v>118466.06646</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>84870.99196000001</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>86088.38612000001</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>158684.412</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>2653.3179</v>
@@ -8030,7 +8297,7 @@
         <v>3750.63233</v>
       </c>
       <c r="J170" s="21" t="n">
-        <v>4727.06803</v>
+        <v>4727.068029999999</v>
       </c>
       <c r="K170" s="22" t="n">
         <v>2224.45505</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>3157.36058</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>755.742</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>3085.1118</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>41523.82411</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>56489.267</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>1353.11562</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>119.446</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>2161.09897</v>
@@ -8135,7 +8417,7 @@
         <v>2331.84133</v>
       </c>
       <c r="E173" s="23" t="n">
-        <v>6216.039779999999</v>
+        <v>6216.03978</v>
       </c>
       <c r="F173" s="33" t="n">
         <v>4444.43406</v>
@@ -8147,26 +8429,31 @@
         <v>8047.37159</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>6015.797280000001</v>
+        <v>6027.881159999999</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>4500.25532</v>
+        <v>4500.255319999999</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>13510.14005</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>26304.18976</v>
+        <v>26305.98976</v>
       </c>
       <c r="M173" s="23" t="n">
         <v>28343.32102</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>49111.018</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>335.44521</v>
@@ -8201,18 +8488,23 @@
       <c r="M174" s="22" t="n">
         <v>38.1356</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>3747.273</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>1825.65376</v>
       </c>
       <c r="D175" s="22" t="n">
-        <v>2331.84133</v>
+        <v>2331.841330000001</v>
       </c>
       <c r="E175" s="22" t="n">
         <v>6216.039779999999</v>
@@ -8227,26 +8519,31 @@
         <v>6855.422799999999</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>5129.45552</v>
+        <v>5141.5394</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>3227.37066</v>
       </c>
       <c r="K175" s="22" t="n">
-        <v>6454.088189999999</v>
+        <v>6454.08819</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>14345.52352</v>
+        <v>14347.32352</v>
       </c>
       <c r="M175" s="22" t="n">
         <v>28305.18542</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>45363.745</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>1644.40407</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>12514.14339</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>9024.183000000001</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>168.68933</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>63.07606</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>56.066</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>1425.98476</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>12302.95069</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>8967.941999999999</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>49.72998</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>148.11664</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>148966.2245</v>
@@ -8501,13 +8828,13 @@
         <v>240846.06629</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>441758.40239</v>
+        <v>442028.98849</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>405110.29908</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>553684.96662</v>
+        <v>554842.58376</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>581367.7925499999</v>
@@ -8516,17 +8843,22 @@
         <v>843258.1882999999</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>1118688.11587</v>
+        <v>1118688.11588</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>1609346.96053</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>1616013.51997</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>2218242.333</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>112190.29131</v>
@@ -8541,32 +8873,37 @@
         <v>190172.28019</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>370526.3835</v>
+        <v>370769.30256</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>351424.9654399999</v>
+        <v>351424.96544</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>454421.04327</v>
+        <v>455578.66041</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>508651.13661</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>757514.63432</v>
+        <v>757514.6343200001</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>999846.5939300001</v>
+        <v>999846.59393</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>1449654.24324</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>1452430.83246</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>2022011.705</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>93990.208</v>
@@ -8581,32 +8918,37 @@
         <v>139378.33978</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>346085.02311</v>
+        <v>346327.9421699999</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>332594.3243</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>432067.8897499999</v>
+        <v>433225.50689</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>467957.30593</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>722551.37476</v>
+        <v>722551.3747599999</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>953552.47459</v>
+        <v>953552.4745899999</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>1407316.96872</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>1409363.75007</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>1829449.111</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>11460.13459</v>
@@ -8630,7 +8972,7 @@
         <v>25368.61683</v>
       </c>
       <c r="J185" s="21" t="n">
-        <v>47009.66805</v>
+        <v>47009.66805000001</v>
       </c>
       <c r="K185" s="22" t="n">
         <v>40293.03395</v>
@@ -8639,14 +8981,19 @@
         <v>51655.06614</v>
       </c>
       <c r="M185" s="22" t="n">
-        <v>47405.07954999999</v>
-      </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+        <v>48250.77283</v>
+      </c>
+      <c r="N185" s="22" t="n">
+        <v>87552.22500000001</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>1680.20338</v>
@@ -8670,7 +9017,7 @@
         <v>3015.463310000001</v>
       </c>
       <c r="J186" s="21" t="n">
-        <v>6315.83737</v>
+        <v>6315.837369999999</v>
       </c>
       <c r="K186" s="22" t="n">
         <v>5382.58099</v>
@@ -8679,14 +9026,19 @@
         <v>5434.5994</v>
       </c>
       <c r="M186" s="22" t="n">
-        <v>5150.967830000001</v>
-      </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+        <v>5266.85324</v>
+      </c>
+      <c r="N186" s="22" t="n">
+        <v>7999.119</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>8420.152099999999</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>83.1628</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>113009.488</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>9557.35809</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>49158.38959000001</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>62379.633</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>8298.12075</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>10550.82831</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>2388.77</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>1259.23734</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>37637.93588</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>43787.804</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>43.797</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>220.442</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>925.8284</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>15982.617</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>19952.30619</v>
@@ -9116,17 +9518,22 @@
         <v>20622.85886</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>46499.99703</v>
+        <v>46499.99703999999</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>75267.88</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>79157.85021999999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>102194.039</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>18588.40394</v>
@@ -9135,7 +9542,7 @@
         <v>22540.09416</v>
       </c>
       <c r="E198" s="22" t="n">
-        <v>30277.59651000001</v>
+        <v>30277.59651</v>
       </c>
       <c r="F198" s="21" t="n">
         <v>10611.54243</v>
@@ -9156,17 +9563,22 @@
         <v>14247.47973</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>39164.36929</v>
+        <v>39164.36930000001</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>55142.57896</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>58925.50046</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>91612.076</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>1363.90225</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>15291.59989</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>844.408</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9353,20 +9785,25 @@
         <v>5165.51108</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>4667.27086</v>
+        <v>4667.270860000001</v>
       </c>
       <c r="L203" s="22" t="n">
         <v>5795.67779</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>4833.70115</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>4940.749870000001</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>9737.555</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>1380.69465</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>1207.18897</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>2561.17</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>1380.69465</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>1207.18897</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>2503.57</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>5708.795980000001</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>28948.70744</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>26525.209</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>5708.795980000001</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>27716.06473</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>26460.091</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,18 +10063,23 @@
       <c r="M209" s="22" t="n">
         <v>1232.64271</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>65.11799999999999</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>176.77828</v>
       </c>
       <c r="D210" s="23" t="n">
-        <v>643.7085800000001</v>
+        <v>643.70858</v>
       </c>
       <c r="E210" s="23" t="n">
         <v>783.32821</v>
@@ -9621,7 +10088,7 @@
         <v>1866.9502</v>
       </c>
       <c r="G210" s="23" t="n">
-        <v>1521.67735</v>
+        <v>1549.34439</v>
       </c>
       <c r="H210" s="33" t="n">
         <v>102.77322</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>5110.55129</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>2570.463</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>108.72056</v>
@@ -9661,7 +10133,7 @@
         <v>1806.29439</v>
       </c>
       <c r="G211" s="22" t="n">
-        <v>1464.90378</v>
+        <v>1492.57082</v>
       </c>
       <c r="H211" s="21" t="n">
         <v>0.15429</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>2799.68777</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>974.035</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>68.05772</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>2310.86352</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>1596.428</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>789885.0747</v>
@@ -9901,13 +10403,13 @@
         <v>1100566.09694</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>1169146.97721</v>
+        <v>1172303.16767</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>1354386.99973</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>1447131.16537</v>
+        <v>1462704.88431</v>
       </c>
       <c r="J217" s="33" t="n">
         <v>1736272.93268</v>
@@ -9916,17 +10418,22 @@
         <v>2214952.48775</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>3005158.03921</v>
+        <v>2990984.79326</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>3146264.58632</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>3158338.7042</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>4179173.329</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>529208.61101</v>
@@ -9935,38 +10442,43 @@
         <v>594792.1265</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>671439.0724699999</v>
+        <v>671439.07247</v>
       </c>
       <c r="F218" s="33" t="n">
         <v>737663.5104400001</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>786681.18686</v>
+        <v>790031.1868599999</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>840565.76775</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>853212.23883</v>
+        <v>860712.23883</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>905810.70743</v>
+        <v>905810.7074300001</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>1019695.37741</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>1361029.43459</v>
+        <v>1365639.30959</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>1557731.31122</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>1568136.00122</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>1747379.075</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>384691.63884</v>
@@ -9981,32 +10493,37 @@
         <v>601650.82414</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>648590.1775</v>
+        <v>651940.1775</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>702235.24914</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>717946.3363099999</v>
+        <v>725446.3363099999</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>770141.33831</v>
+        <v>770141.3383099999</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>886289.43531</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>1223408.38263</v>
+        <v>1232633.38263</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>1421713.38263</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>1446843.38263</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>1615295.836</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>9902.161</v>
@@ -10036,17 +10553,22 @@
         <v>17958.00999</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>16005.95674</v>
+        <v>20621.08174</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>17609.08011</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>32334.39011</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>21114.853</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>154725.81268</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>153807.36642</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>153378.45</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>306.67951</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>180.35772</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>180.358</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>4423.7535</v>
@@ -10141,13 +10673,13 @@
         <v>61043.72943</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>59141.75421000001</v>
+        <v>59141.75420999999</v>
       </c>
       <c r="H223" s="33" t="n">
         <v>50959.87226999999</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>39284.27411</v>
+        <v>44228.24964000001</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>167026.13134</v>
@@ -10159,14 +10691,19 @@
         <v>153636.26416</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>154158.22125</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>156081.87057</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>159416.438</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>270</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>47.47638</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>2548.17815</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>2548.178</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>1494.162</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>1494.162</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>1494.162</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10359,14 +10916,19 @@
         <v>47260.61489</v>
       </c>
       <c r="M228" s="22" t="n">
-        <v>51905.40164</v>
-      </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+        <v>52859.05096</v>
+      </c>
+      <c r="N228" s="22" t="n">
+        <v>42908.824</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>2882.11512</v>
@@ -10427,7 +10994,7 @@
         <v>32409.82599</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>23650.7393</v>
+        <v>28594.71483</v>
       </c>
       <c r="J230" s="21" t="n">
         <v>75073.71718000001</v>
@@ -10439,14 +11006,19 @@
         <v>101437.2719</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>97940.47945999999</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>98910.47945999999</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>112195.274</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>129096.89882</v>
@@ -10461,13 +11033,13 @@
         <v>119582.88173</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>137986.07177</v>
+        <v>138059.75735</v>
       </c>
       <c r="H231" s="33" t="n">
         <v>160186.27302</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>145348.28257</v>
+        <v>145714.83573</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>155665.7283</v>
@@ -10476,23 +11048,28 @@
         <v>200917.68642</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>177616.72152</v>
+        <v>177745.04663</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>203702.75817</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>204889.70219</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>253866.346</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>43895.52332</v>
       </c>
       <c r="D232" s="22" t="n">
-        <v>45443.72533999999</v>
+        <v>45443.72534</v>
       </c>
       <c r="E232" s="22" t="n">
         <v>40589.99017</v>
@@ -10501,13 +11078,13 @@
         <v>46776.51117000001</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>54897.97202</v>
+        <v>54971.08767</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>58605.73308999999</v>
+        <v>58605.73309</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>61640.86829000001</v>
+        <v>62007.42144999999</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>66608.72886999999</v>
@@ -10516,17 +11093,22 @@
         <v>78732.30525999999</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>90508.08848999999</v>
+        <v>90636.41360000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>122225.61807</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>122450.2849</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>146150.833</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>158.77612</v>
@@ -10561,30 +11143,35 @@
       <c r="M233" s="22" t="n">
         <v>734.9820500000001</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>841.812</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>81341.70953999998</v>
+        <v>81341.70954</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>58335.12097</v>
       </c>
       <c r="E234" s="22" t="n">
-        <v>69031.91294999998</v>
+        <v>69031.91295</v>
       </c>
       <c r="F234" s="21" t="n">
         <v>67518.71773</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>75334.11064</v>
+        <v>75334.68057000001</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>81507.74875</v>
+        <v>81507.74874999998</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>65882.32268</v>
@@ -10599,14 +11186,19 @@
         <v>35126.78069</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>53115.11667</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>54077.39328</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>46158.806</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>65.93949000000001</v>
@@ -10639,14 +11231,19 @@
         <v>19344.20725</v>
       </c>
       <c r="M235" s="22" t="n">
-        <v>65.39287999999999</v>
-      </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+        <v>65.39346</v>
+      </c>
+      <c r="N235" s="22" t="n">
+        <v>65.393</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>3634.95035</v>
@@ -10661,7 +11258,7 @@
         <v>5045.87645</v>
       </c>
       <c r="G236" s="22" t="n">
-        <v>7304.15132</v>
+        <v>7304.151319999999</v>
       </c>
       <c r="H236" s="21" t="n">
         <v>19585.32782</v>
@@ -10673,7 +11270,7 @@
         <v>16186.48347</v>
       </c>
       <c r="K236" s="22" t="n">
-        <v>44292.44504999999</v>
+        <v>44292.44505</v>
       </c>
       <c r="L236" s="22" t="n">
         <v>27219.64663</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>27561.6485</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>60649.502</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>204321.6767</v>
@@ -10701,32 +11303,37 @@
         <v>271658.01284</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>342418.06204</v>
+        <v>342438.73146</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>420082.18595</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>525714.73864</v>
+        <v>526891.3557</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>678934.9884</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>733556.2193600001</v>
+        <v>733556.2193599999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>1064256.2089</v>
+        <v>1064287.81579</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>1221896.7207</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>1223372.41993</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>1595181.515</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-115794.36026</v>
@@ -10741,32 +11348,37 @@
         <v>-109281.35457</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-201369.17788</v>
+        <v>-201576.43665</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-240198.16001</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-206800.92775</v>
+        <v>-207218.2127</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-335340.0483800001</v>
+        <v>-335340.04838</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-370828.12252</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-240633.31225</v>
+        <v>-250897.00915</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-435883.04082</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-437413.53973</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-616840.786</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>38628.49493</v>
@@ -10781,13 +11393,13 @@
         <v>19899.31707</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>44289.08020999999</v>
+        <v>44208.17444</v>
       </c>
       <c r="H239" s="33" t="n">
         <v>122791.06075</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>90372.55897</v>
+        <v>92376.41710999999</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>164175.42559</v>
@@ -10796,17 +11408,22 @@
         <v>470527.26626</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>489252.72229</v>
+        <v>480573.36624</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>444658.6158000001</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>443272.25002</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>1040170.741</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>66519.84285</v>
@@ -10827,41 +11444,46 @@
         <v>159086.70236</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>197732.01915</v>
+        <v>199735.87729</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>238143.41348</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>484527.4696599999</v>
+        <v>484527.46966</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>665711.9845499999</v>
+        <v>665728.13312</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>623185.9001900001</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>621951.89159</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>1141329.783</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>27891.34792</v>
       </c>
       <c r="D241" s="22" t="n">
-        <v>9043.177049999998</v>
+        <v>9043.17705</v>
       </c>
       <c r="E241" s="22" t="n">
         <v>20124.8393</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>87510.96151000001</v>
+        <v>87510.96150999999</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>80718.5045</v>
+        <v>80799.41026999999</v>
       </c>
       <c r="H241" s="21" t="n">
         <v>36295.64161</v>
@@ -10876,17 +11498,22 @@
         <v>14000.2034</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>176459.26226</v>
+        <v>185154.76688</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>178527.28439</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>178679.64157</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>101159.042</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1667471.06103</v>
@@ -10901,29 +11528,32 @@
         <v>2950473.0433</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>3393489.320400001</v>
+        <v>3397167.18016</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>3978798.60106</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>4666936.88381</v>
+        <v>4692452.95706</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>5361884.93007</v>
+        <v>5361884.930069999</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>7081255.928959999</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>9243392.251200002</v>
+        <v>9274352.1555</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>10153067.88505</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>10190980.65372</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>12724394.26</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>123</v>
@@ -10957,13 +11590,13 @@
         <v>133</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>149</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>155</v>
@@ -10972,14 +11605,17 @@
         <v>158</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>186</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>201</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>214</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>